--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510132.2593047978</v>
+        <v>506850.5914291598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573252.270349382</v>
+        <v>5573252.270349381</v>
       </c>
     </row>
     <row r="11">
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -759,7 +759,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.10634673358876</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>167.7887132253618</v>
+        <v>161.7036873130866</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1509,10 +1509,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,10 +1625,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.77034251042112</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.9174757594852</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,55 +2002,55 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>98.30418230078034</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>179.893889941384</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>50.25707871510748</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>70.73885857389301</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>62.52515684565924</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10.15822114686786</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,67 +3029,67 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>50.25707871510754</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>139.0443297585467</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>212.2701752523862</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,52 +3430,52 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>17.75862174607511</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,70 +3737,70 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>38.31989726335546</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3916,37 +3916,37 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>9.357836733174581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4355,22 +4355,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4386,25 +4386,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.583345248266</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
+        <v>65.60123993063803</v>
+      </c>
+      <c r="M6" t="n">
         <v>304.2053859195205</v>
-      </c>
-      <c r="M6" t="n">
-        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4762,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>418.5067695725487</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C9" t="n">
         <v>418.5067695725487</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4920,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>794.5736067981495</v>
+        <v>800.7200976186296</v>
       </c>
       <c r="X9" t="n">
-        <v>586.7221065926167</v>
+        <v>800.7200976186296</v>
       </c>
       <c r="Y9" t="n">
-        <v>586.7221065926167</v>
+        <v>592.9597988536757</v>
       </c>
     </row>
     <row r="10">
@@ -4954,7 +4954,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,22 +5142,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5185,19 +5185,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E14" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,49 +5358,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>904.6931731768775</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>731.2758286275464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>529.0892339863124</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>300.8656157227014</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V15" t="n">
-        <v>300.8656157227014</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W15" t="n">
-        <v>300.8656157227014</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X15" t="n">
-        <v>300.8656157227014</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y15" t="n">
-        <v>300.8656157227014</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5431,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.067986854209</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C17" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D17" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y17" t="n">
-        <v>710.516763498309</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5698,25 +5698,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178.5185981156682</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="C21" t="n">
-        <v>178.5185981156682</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V21" t="n">
-        <v>178.5185981156682</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W21" t="n">
-        <v>178.5185981156682</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X21" t="n">
-        <v>178.5185981156682</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.5185981156682</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>892.6037630117544</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>690.4171683705204</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>462.1935501069094</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>238.2612061051368</v>
       </c>
     </row>
     <row r="25">
@@ -6175,16 +6175,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="27">
@@ -6306,46 +6306,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>900.9004314241117</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>900.9004314241117</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>698.7138367828777</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U27" t="n">
-        <v>470.4902185192667</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>470.4902185192667</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>227.0414418751666</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>178.4763822127447</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>29.54197255149339</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>29.54197255149339</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6664,7 +6664,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6786,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>638.7055555393347</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>638.7055555393347</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>638.7055555393347</v>
+        <v>421.9673747597683</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V35" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W35" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="X35" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.8157010833278</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8157010833278</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,13 +7017,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>749.6428370738824</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>749.6428370738824</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>749.6428370738824</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X36" t="n">
-        <v>541.7913368683496</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.0310381033958</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7123,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7172,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.2071172886402</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C39" t="n">
-        <v>111.2071172886402</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>946.119153746924</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>946.119153746924</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>743.93255910569</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>515.708940842079</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>515.708940842079</v>
       </c>
       <c r="W39" t="n">
-        <v>318.9674160535941</v>
+        <v>515.708940842079</v>
       </c>
       <c r="X39" t="n">
-        <v>318.9674160535941</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="Y39" t="n">
-        <v>111.2071172886402</v>
+        <v>307.8574406365461</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>378.9756972971371</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C42" t="n">
-        <v>204.52266801601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>204.52266801601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>547.1910343172051</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +7843,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,7 +8061,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22595,25 +22595,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.0541832853293</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.05569651810563</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -22829,10 +22829,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>84.81608375669855</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771058</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>83.90626993555779</v>
+        <v>89.99129584783302</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23194,10 +23194,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I10" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>174.0429600055611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23397,10 +23397,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>201.1924361087609</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>127.8627523801188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,10 +23513,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.644360585345</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23589,7 +23589,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.38749164222201</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>44.5329991677731</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23789,7 +23789,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>325.9427623970988</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>49.14088326385841</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>52.90669720804129</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>61.97836552138898</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>100.9443125299448</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,19 +24443,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>214.9666412263055</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.63267730698389</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>44.58217180160739</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>134.910991246516</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24810,22 +24810,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,10 +24932,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>149.9076499797141</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>93.7562573908786</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25154,16 +25154,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>48.54453087425802</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>13.67120682858859</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>56.43835112799553</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>82.39921240656801</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>119.3251831920455</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,13 +25874,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25944,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>148.2872437222263</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,19 +25995,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310077</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>116312.4707719326</v>
+      </c>
+      <c r="C2" t="n">
         <v>116312.4707719327</v>
-      </c>
-      <c r="C2" t="n">
-        <v>116312.4707719326</v>
       </c>
       <c r="D2" t="n">
         <v>116312.4707719327</v>
@@ -26353,7 +26353,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="P2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29260.68891881201</v>
+        <v>-29652.91916435761</v>
       </c>
       <c r="C6" t="n">
-        <v>51508.74261273567</v>
+        <v>51116.51236719017</v>
       </c>
       <c r="D6" t="n">
-        <v>51508.74261273578</v>
+        <v>51116.51236719021</v>
       </c>
       <c r="E6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="F6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="G6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="H6" t="n">
-        <v>85136.34261273569</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="I6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="J6" t="n">
-        <v>22076.4000136295</v>
+        <v>21684.16976808396</v>
       </c>
       <c r="K6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="L6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="M6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="N6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="O6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="P6" t="n">
-        <v>85136.34261273568</v>
+        <v>84744.11236719019</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,19 +35492,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
